--- a/template_excel.xlsx
+++ b/template_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Generatore_Strutture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Generatore_Strutture\sito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE96A53-F590-4D5C-9876-8E7F4386620B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C23234-2D1E-4216-A81F-985CEA933B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1584" yWindow="864" windowWidth="18864" windowHeight="10548" xr2:uid="{E23BAD12-4D9A-44D5-BA43-3099214ED9E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E23BAD12-4D9A-44D5-BA43-3099214ED9E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,8 +170,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A362362-EAA3-449C-8564-3A37DA7D434B}" name="Table3" displayName="Table3" ref="A1:L18" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L18" xr:uid="{2A362362-EAA3-449C-8564-3A37DA7D434B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A362362-EAA3-449C-8564-3A37DA7D434B}" name="Table3" displayName="Table3" ref="A1:L127" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L127" xr:uid="{2A362362-EAA3-449C-8564-3A37DA7D434B}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{80BD74C1-B7E7-4DC1-86EE-40720B30BA26}" name="Tag Name"/>
     <tableColumn id="2" xr3:uid="{23C3EE45-1155-4EF4-9707-F15C380299C3}" name="Data type"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/template_excel.xlsx
+++ b/template_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Generatore_Strutture\sito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C23234-2D1E-4216-A81F-985CEA933B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939AD499-D522-4D94-A86B-4F50C64CA28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E23BAD12-4D9A-44D5-BA43-3099214ED9E2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E23BAD12-4D9A-44D5-BA43-3099214ED9E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="436">
   <si>
     <t>Tag Name</t>
   </si>
@@ -72,6 +72,1278 @@
   </si>
   <si>
     <t>Modifiche</t>
+  </si>
+  <si>
+    <t>AI[1]Output.Actual</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>DB2.DBD1058,0</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>[LT_GR1A] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AI[1]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD1062,0</t>
+  </si>
+  <si>
+    <t>R/W</t>
+  </si>
+  <si>
+    <t>[LT_GR1A] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[1]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD1066,0</t>
+  </si>
+  <si>
+    <t>[LT_GR1A] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[1]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD1070,0</t>
+  </si>
+  <si>
+    <t>[LT_GR1A] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[1]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD1074,0</t>
+  </si>
+  <si>
+    <t>[LT_GR1A] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[2]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD1598,0</t>
+  </si>
+  <si>
+    <t>[LT_GR2A] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[2]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD1602,0</t>
+  </si>
+  <si>
+    <t>[LT_GR2A] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[2]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD1606,0</t>
+  </si>
+  <si>
+    <t>[LT_GR2A] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[2]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD1610,0</t>
+  </si>
+  <si>
+    <t>[LT_GR2A] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[2]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD1614,0</t>
+  </si>
+  <si>
+    <t>[LT_GR2A] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[3]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD2138,0</t>
+  </si>
+  <si>
+    <t>[LT_BP1] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[3]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD2142,0</t>
+  </si>
+  <si>
+    <t>[LT_BP1] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[3]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD2146,0</t>
+  </si>
+  <si>
+    <t>[LT_BP1] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[3]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD2150,0</t>
+  </si>
+  <si>
+    <t>[LT_BP1] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[3]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD2154,0</t>
+  </si>
+  <si>
+    <t>[LT_BP1] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[4]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD2678,0</t>
+  </si>
+  <si>
+    <t>[LT_BP2] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[4]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD2682,0</t>
+  </si>
+  <si>
+    <t>[LT_BP2] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[4]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD2686,0</t>
+  </si>
+  <si>
+    <t>[LT_BP2] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[4]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD2690,0</t>
+  </si>
+  <si>
+    <t>[LT_BP2] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[4]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD2694,0</t>
+  </si>
+  <si>
+    <t>[LT_BP2] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[5]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD3218,0</t>
+  </si>
+  <si>
+    <t>[LT_300] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[5]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD3222,0</t>
+  </si>
+  <si>
+    <t>[LT_300] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[5]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD3226,0</t>
+  </si>
+  <si>
+    <t>[LT_300] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[5]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD3230,0</t>
+  </si>
+  <si>
+    <t>[LT_300] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[5]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD3234,0</t>
+  </si>
+  <si>
+    <t>[LT_300] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[6]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD3758,0</t>
+  </si>
+  <si>
+    <t>[FT_200CS] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[6]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD3762,0</t>
+  </si>
+  <si>
+    <t>[FT_200CS] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[6]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD3766,0</t>
+  </si>
+  <si>
+    <t>[FT_200CS] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[6]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD3770,0</t>
+  </si>
+  <si>
+    <t>[FT_200CS] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[6]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD3774,0</t>
+  </si>
+  <si>
+    <t>[FT_200CS] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[7]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD4298,0</t>
+  </si>
+  <si>
+    <t>[FT_300CS] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[7]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD4302,0</t>
+  </si>
+  <si>
+    <t>[FT_300CS] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[7]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD4306,0</t>
+  </si>
+  <si>
+    <t>[FT_300CS] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[7]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD4310,0</t>
+  </si>
+  <si>
+    <t>[FT_300CS] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[7]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD4314,0</t>
+  </si>
+  <si>
+    <t>[FT_300CS] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[8]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD4838,0</t>
+  </si>
+  <si>
+    <t>[LT_200CS] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[8]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD4842,0</t>
+  </si>
+  <si>
+    <t>[LT_200CS] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[8]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD4846,0</t>
+  </si>
+  <si>
+    <t>[LT_200CS] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[8]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD4850,0</t>
+  </si>
+  <si>
+    <t>[LT_200CS] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[8]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD4854,0</t>
+  </si>
+  <si>
+    <t>[LT_200CS] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[9]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD5378,0</t>
+  </si>
+  <si>
+    <t>[LT_300CS] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[9]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD5382,0</t>
+  </si>
+  <si>
+    <t>[LT_300CS] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[9]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD5386,0</t>
+  </si>
+  <si>
+    <t>[LT_300CS] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[9]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD5390,0</t>
+  </si>
+  <si>
+    <t>[LT_300CS] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[9]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD5394,0</t>
+  </si>
+  <si>
+    <t>[LT_300CS] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[10]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD5918,0</t>
+  </si>
+  <si>
+    <t>[FT_GR1] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[10]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD5922,0</t>
+  </si>
+  <si>
+    <t>[FT_GR1] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[10]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD5926,0</t>
+  </si>
+  <si>
+    <t>[FT_GR1] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[10]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD5930,0</t>
+  </si>
+  <si>
+    <t>[FT_GR1] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[10]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD5934,0</t>
+  </si>
+  <si>
+    <t>[FT_GR1] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[11]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD6458,0</t>
+  </si>
+  <si>
+    <t>[FT_GR2] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[11]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD6462,0</t>
+  </si>
+  <si>
+    <t>[FT_GR2] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[11]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD6466,0</t>
+  </si>
+  <si>
+    <t>[FT_GR2] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[11]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD6470,0</t>
+  </si>
+  <si>
+    <t>[FT_GR2] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[11]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD6474,0</t>
+  </si>
+  <si>
+    <t>[FT_GR2] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[12]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD6998,0</t>
+  </si>
+  <si>
+    <t>[ZT_BP1] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[12]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD7002,0</t>
+  </si>
+  <si>
+    <t>[ZT_BP1] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[12]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD7006,0</t>
+  </si>
+  <si>
+    <t>[ZT_BP1] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[12]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD7010,0</t>
+  </si>
+  <si>
+    <t>[ZT_BP1] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[12]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD7014,0</t>
+  </si>
+  <si>
+    <t>[ZT_BP1] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[13]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD7538,0</t>
+  </si>
+  <si>
+    <t>[ZT_BP2] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[13]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD7542,0</t>
+  </si>
+  <si>
+    <t>[ZT_BP2] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[13]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD7546,0</t>
+  </si>
+  <si>
+    <t>[ZT_BP2] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[13]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD7550,0</t>
+  </si>
+  <si>
+    <t>[ZT_BP2] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[13]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD7554,0</t>
+  </si>
+  <si>
+    <t>[ZT_BP2] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[20]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD11318,0</t>
+  </si>
+  <si>
+    <t>[Portata uscita] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[20]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD11322,0</t>
+  </si>
+  <si>
+    <t>[Portata uscita] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[20]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD11326,0</t>
+  </si>
+  <si>
+    <t>[Portata uscita] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[20]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD11330,0</t>
+  </si>
+  <si>
+    <t>[Portata uscita] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[20]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD11334,0</t>
+  </si>
+  <si>
+    <t>[Portata uscita] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[21]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD11858,0</t>
+  </si>
+  <si>
+    <t>[Livello serbatoio IPO] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[21]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD11862,0</t>
+  </si>
+  <si>
+    <t>[Livello serbatoio IPO] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[21]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD11866,0</t>
+  </si>
+  <si>
+    <t>[Livello serbatoio IPO] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[21]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD11870,0</t>
+  </si>
+  <si>
+    <t>[Livello serbatoio IPO] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[21]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD11874,0</t>
+  </si>
+  <si>
+    <t>[Livello serbatoio IPO] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[22]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD12398,0</t>
+  </si>
+  <si>
+    <t>[Nitrati uscita] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[22]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD12402,0</t>
+  </si>
+  <si>
+    <t>[Nitrati uscita] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[22]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD12406,0</t>
+  </si>
+  <si>
+    <t>[Nitrati uscita] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[22]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD12410,0</t>
+  </si>
+  <si>
+    <t>[Nitrati uscita] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[22]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD12414,0</t>
+  </si>
+  <si>
+    <t>[Nitrati uscita] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[23]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD12938,0</t>
+  </si>
+  <si>
+    <t>[Solidi uscita] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[23]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD12942,0</t>
+  </si>
+  <si>
+    <t>[Solidi uscita] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[23]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD12946,0</t>
+  </si>
+  <si>
+    <t>[Solidi uscita] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[23]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD12950,0</t>
+  </si>
+  <si>
+    <t>[Solidi uscita] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[23]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD12954,0</t>
+  </si>
+  <si>
+    <t>[Solidi uscita] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[24]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD13478,0</t>
+  </si>
+  <si>
+    <t>[Ortofosfati uscita] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[24]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD13482,0</t>
+  </si>
+  <si>
+    <t>[Ortofosfati uscita] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[24]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD13486,0</t>
+  </si>
+  <si>
+    <t>[Ortofosfati uscita] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[24]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD13490,0</t>
+  </si>
+  <si>
+    <t>[Ortofosfati uscita] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[24]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD13494,0</t>
+  </si>
+  <si>
+    <t>[Ortofosfati uscita] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[25]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD14018,0</t>
+  </si>
+  <si>
+    <t>[Livello fango sedimentazione chimico fisico] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[25]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD14022,0</t>
+  </si>
+  <si>
+    <t>[Livello fango sedimentazione chimico fisico] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[25]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD14026,0</t>
+  </si>
+  <si>
+    <t>[Livello fango sedimentazione chimico fisico] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[25]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD14030,0</t>
+  </si>
+  <si>
+    <t>[Livello fango sedimentazione chimico fisico] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[25]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD14034,0</t>
+  </si>
+  <si>
+    <t>[Livello fango sedimentazione chimico fisico] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[26]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD14558,0</t>
+  </si>
+  <si>
+    <t>[Ossigeno Linea 2] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[26]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD14562,0</t>
+  </si>
+  <si>
+    <t>[Ossigeno Linea 2] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[26]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD14566,0</t>
+  </si>
+  <si>
+    <t>[Ossigeno Linea 2] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[26]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD14570,0</t>
+  </si>
+  <si>
+    <t>[Ossigeno Linea 2] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[26]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD14574,0</t>
+  </si>
+  <si>
+    <t>[Ossigeno Linea 2] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[27]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD15098,0</t>
+  </si>
+  <si>
+    <t>[Solidi linea 2] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[27]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD15102,0</t>
+  </si>
+  <si>
+    <t>[Solidi linea 2] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[27]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD15106,0</t>
+  </si>
+  <si>
+    <t>[Solidi linea 2] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[27]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD15110,0</t>
+  </si>
+  <si>
+    <t>[Solidi linea 2] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[27]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD15114,0</t>
+  </si>
+  <si>
+    <t>[Solidi linea 2] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[40]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD22118,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_T1] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[40]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD22122,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_T1] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[40]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD22126,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_T1] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[40]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD22130,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_T1] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[40]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD22134,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_T1] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[41]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD22658,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_T2] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[41]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD22662,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_T2] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[41]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD22666,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_T2] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[41]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD22670,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_T2] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[41]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD22674,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_T2] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[42]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD23198,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Vrel] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[42]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD23202,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Vrel] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[42]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD23206,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Vrel] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[42]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD23210,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Vrel] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[42]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD23214,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Vrel] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[43]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD23738,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_V] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[43]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD23742,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_V] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[43]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD23746,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_V] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[43]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD23750,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_V] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[43]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD23754,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_V] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[44]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD24278,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Torque] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[44]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD24282,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Torque] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[44]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD24286,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Torque] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[44]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD24290,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Torque] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[44]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD24294,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Torque] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[45]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD24818,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Vibra] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[45]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD24822,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Vibra] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[45]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD24826,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Vibra] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[45]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD24830,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Vibra] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[45]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD24834,0</t>
+  </si>
+  <si>
+    <t>[AI_MS101_Vibra] Setpoint allarme basso livello</t>
+  </si>
+  <si>
+    <t>AI[46]Output.Actual</t>
+  </si>
+  <si>
+    <t>DB2.DBD25358,0</t>
+  </si>
+  <si>
+    <t>[AI_RIf_Da_NewCentrifuga] Valore attuale analogica ingegnerizzata</t>
+  </si>
+  <si>
+    <t>AI[46]Output.Min</t>
+  </si>
+  <si>
+    <t>DB2.DBD25362,0</t>
+  </si>
+  <si>
+    <t>[AI_RIf_Da_NewCentrifuga] Max scalatura</t>
+  </si>
+  <si>
+    <t>AI[46]Output.Max</t>
+  </si>
+  <si>
+    <t>DB2.DBD25366,0</t>
+  </si>
+  <si>
+    <t>[AI_RIf_Da_NewCentrifuga] Min scalatura</t>
+  </si>
+  <si>
+    <t>AI[46]Limit.H</t>
+  </si>
+  <si>
+    <t>DB2.DBD25370,0</t>
+  </si>
+  <si>
+    <t>[AI_RIf_Da_NewCentrifuga] Setpoint allarme alto livello</t>
+  </si>
+  <si>
+    <t>AI[46]Limit.L</t>
+  </si>
+  <si>
+    <t>DB2.DBD25374,0</t>
+  </si>
+  <si>
+    <t>[AI_RIf_Da_NewCentrifuga] Setpoint allarme basso livello</t>
   </si>
 </sst>
 </file>
@@ -170,8 +1442,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A362362-EAA3-449C-8564-3A37DA7D434B}" name="Table3" displayName="Table3" ref="A1:L127" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L127" xr:uid="{2A362362-EAA3-449C-8564-3A37DA7D434B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A362362-EAA3-449C-8564-3A37DA7D434B}" name="Table3" displayName="Table3" ref="A1:L223" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L223" xr:uid="{2A362362-EAA3-449C-8564-3A37DA7D434B}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{80BD74C1-B7E7-4DC1-86EE-40720B30BA26}" name="Tag Name"/>
     <tableColumn id="2" xr3:uid="{23C3EE45-1155-4EF4-9707-F15C380299C3}" name="Data type"/>
@@ -507,26 +1779,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFD0A97-DD33-45B6-BE99-6EBF9853EFA9}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
@@ -565,6 +1837,8404 @@
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>999999</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>999999</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>999999</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>999999</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>999999</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>999999</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>999999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>999999</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>999999</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>59</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>999999</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>999999</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>59</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>999999</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>999999</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>999999</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>999999</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>59</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>59</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>999999</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>999999</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>59</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>59</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>999999</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>999999</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>999999</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>999999</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>59</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>59</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>999999</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>999999</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>59</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>999999</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>999999</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>999999</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>999999</v>
+      </c>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>59</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>59</v>
+      </c>
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>999999</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>999999</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>59</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>59</v>
+      </c>
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>999999</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>999999</v>
+      </c>
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>999999</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>999999</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>59</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>59</v>
+      </c>
+      <c r="L45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>999999</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>999999</v>
+      </c>
+      <c r="L46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>59</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>59</v>
+      </c>
+      <c r="L47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>999999</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>999999</v>
+      </c>
+      <c r="L51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>999999</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>999999</v>
+      </c>
+      <c r="L52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>59</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>59</v>
+      </c>
+      <c r="L53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>999999</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>999999</v>
+      </c>
+      <c r="L54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>59</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>59</v>
+      </c>
+      <c r="L55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>999999</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>999999</v>
+      </c>
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>999999</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>999999</v>
+      </c>
+      <c r="L60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>59</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>59</v>
+      </c>
+      <c r="L61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>999999</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>999999</v>
+      </c>
+      <c r="L62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>59</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>59</v>
+      </c>
+      <c r="L63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>999999</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>999999</v>
+      </c>
+      <c r="L67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>141</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>999999</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>999999</v>
+      </c>
+      <c r="L68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>59</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>59</v>
+      </c>
+      <c r="L69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>999999</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>999999</v>
+      </c>
+      <c r="L70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s">
+        <v>150</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>59</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>59</v>
+      </c>
+      <c r="L71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>999999</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>999999</v>
+      </c>
+      <c r="L75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>999999</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>999999</v>
+      </c>
+      <c r="L76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>59</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>59</v>
+      </c>
+      <c r="L77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>162</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>999999</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>999999</v>
+      </c>
+      <c r="L78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" t="s">
+        <v>165</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>59</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>59</v>
+      </c>
+      <c r="L79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>168</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>999999</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>999999</v>
+      </c>
+      <c r="L83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>999999</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>999999</v>
+      </c>
+      <c r="L84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>59</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>59</v>
+      </c>
+      <c r="L85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" t="s">
+        <v>177</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>999999</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>999999</v>
+      </c>
+      <c r="L86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" t="s">
+        <v>180</v>
+      </c>
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>59</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>59</v>
+      </c>
+      <c r="L87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>183</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>999999</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>999999</v>
+      </c>
+      <c r="L91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" t="s">
+        <v>186</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>999999</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>999999</v>
+      </c>
+      <c r="L92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>59</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>59</v>
+      </c>
+      <c r="L93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" t="s">
+        <v>192</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>999999</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>999999</v>
+      </c>
+      <c r="L94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" t="s">
+        <v>195</v>
+      </c>
+      <c r="F95" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>59</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>59</v>
+      </c>
+      <c r="L95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s">
+        <v>198</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>999999</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>999999</v>
+      </c>
+      <c r="L99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>201</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>999999</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>999999</v>
+      </c>
+      <c r="L100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" t="s">
+        <v>204</v>
+      </c>
+      <c r="F101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>59</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>59</v>
+      </c>
+      <c r="L101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" t="s">
+        <v>207</v>
+      </c>
+      <c r="F102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>999999</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>999999</v>
+      </c>
+      <c r="L102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>209</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" t="s">
+        <v>210</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>59</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>59</v>
+      </c>
+      <c r="L103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" t="s">
+        <v>17</v>
+      </c>
+      <c r="L104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" t="s">
+        <v>17</v>
+      </c>
+      <c r="L105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" t="s">
+        <v>213</v>
+      </c>
+      <c r="F107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>999999</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>999999</v>
+      </c>
+      <c r="L107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" t="s">
+        <v>216</v>
+      </c>
+      <c r="F108" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>999999</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>999999</v>
+      </c>
+      <c r="L108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" t="s">
+        <v>219</v>
+      </c>
+      <c r="F109" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>59</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>59</v>
+      </c>
+      <c r="L109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>221</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" t="s">
+        <v>222</v>
+      </c>
+      <c r="F110" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>999999</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>999999</v>
+      </c>
+      <c r="L110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>224</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" t="s">
+        <v>225</v>
+      </c>
+      <c r="F111" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>59</v>
+      </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>59</v>
+      </c>
+      <c r="L111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" t="s">
+        <v>17</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" t="s">
+        <v>17</v>
+      </c>
+      <c r="L112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" t="s">
+        <v>17</v>
+      </c>
+      <c r="I113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" t="s">
+        <v>17</v>
+      </c>
+      <c r="L113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" t="s">
+        <v>17</v>
+      </c>
+      <c r="L114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>227</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>999999</v>
+      </c>
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>999999</v>
+      </c>
+      <c r="L115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>230</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" t="s">
+        <v>231</v>
+      </c>
+      <c r="F116" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>999999</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>999999</v>
+      </c>
+      <c r="L116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>233</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" t="s">
+        <v>234</v>
+      </c>
+      <c r="F117" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>59</v>
+      </c>
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>59</v>
+      </c>
+      <c r="L117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" t="s">
+        <v>237</v>
+      </c>
+      <c r="F118" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>999999</v>
+      </c>
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>999999</v>
+      </c>
+      <c r="L118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>239</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" t="s">
+        <v>240</v>
+      </c>
+      <c r="F119" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>59</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>59</v>
+      </c>
+      <c r="L119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" t="s">
+        <v>17</v>
+      </c>
+      <c r="L120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" t="s">
+        <v>17</v>
+      </c>
+      <c r="L121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" t="s">
+        <v>17</v>
+      </c>
+      <c r="L122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>242</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" t="s">
+        <v>243</v>
+      </c>
+      <c r="F123" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>999999</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>999999</v>
+      </c>
+      <c r="L123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>999999</v>
+      </c>
+      <c r="I124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>999999</v>
+      </c>
+      <c r="L124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>248</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" t="s">
+        <v>249</v>
+      </c>
+      <c r="F125" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>59</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>59</v>
+      </c>
+      <c r="L125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>251</v>
+      </c>
+      <c r="D126" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" t="s">
+        <v>252</v>
+      </c>
+      <c r="F126" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>999999</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>999999</v>
+      </c>
+      <c r="L126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>254</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" t="s">
+        <v>255</v>
+      </c>
+      <c r="F127" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>59</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>59</v>
+      </c>
+      <c r="L127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" t="s">
+        <v>17</v>
+      </c>
+      <c r="K128" t="s">
+        <v>17</v>
+      </c>
+      <c r="L128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" t="s">
+        <v>17</v>
+      </c>
+      <c r="L129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" t="s">
+        <v>17</v>
+      </c>
+      <c r="L130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>257</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>999999</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>999999</v>
+      </c>
+      <c r="L131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" t="s">
+        <v>261</v>
+      </c>
+      <c r="F132" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>999999</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>999999</v>
+      </c>
+      <c r="L132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>263</v>
+      </c>
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>59</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>59</v>
+      </c>
+      <c r="L133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" t="s">
+        <v>267</v>
+      </c>
+      <c r="F134" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>999999</v>
+      </c>
+      <c r="I134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>999999</v>
+      </c>
+      <c r="L134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>269</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" t="s">
+        <v>270</v>
+      </c>
+      <c r="F135" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>59</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>59</v>
+      </c>
+      <c r="L135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" t="s">
+        <v>17</v>
+      </c>
+      <c r="F136" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" t="s">
+        <v>17</v>
+      </c>
+      <c r="L136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" t="s">
+        <v>17</v>
+      </c>
+      <c r="I137" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137" t="s">
+        <v>17</v>
+      </c>
+      <c r="K137" t="s">
+        <v>17</v>
+      </c>
+      <c r="L137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" t="s">
+        <v>17</v>
+      </c>
+      <c r="F138" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" t="s">
+        <v>17</v>
+      </c>
+      <c r="K138" t="s">
+        <v>17</v>
+      </c>
+      <c r="L138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>271</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>272</v>
+      </c>
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" t="s">
+        <v>273</v>
+      </c>
+      <c r="F139" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>999999</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>999999</v>
+      </c>
+      <c r="L139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>275</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>999999</v>
+      </c>
+      <c r="I140" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>999999</v>
+      </c>
+      <c r="L140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>278</v>
+      </c>
+      <c r="D141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141" t="s">
+        <v>279</v>
+      </c>
+      <c r="F141" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>59</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>59</v>
+      </c>
+      <c r="L141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>281</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>999999</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>999999</v>
+      </c>
+      <c r="L142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>284</v>
+      </c>
+      <c r="D143" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143" t="s">
+        <v>285</v>
+      </c>
+      <c r="F143" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>59</v>
+      </c>
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>59</v>
+      </c>
+      <c r="L143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" t="s">
+        <v>17</v>
+      </c>
+      <c r="L144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" t="s">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" t="s">
+        <v>17</v>
+      </c>
+      <c r="L145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" t="s">
+        <v>17</v>
+      </c>
+      <c r="L146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>286</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>287</v>
+      </c>
+      <c r="D147" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
+        <v>17</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>999999</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>999999</v>
+      </c>
+      <c r="L147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>290</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" t="s">
+        <v>291</v>
+      </c>
+      <c r="F148" t="s">
+        <v>17</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>999999</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>999999</v>
+      </c>
+      <c r="L148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>293</v>
+      </c>
+      <c r="D149" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>59</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>59</v>
+      </c>
+      <c r="L149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>296</v>
+      </c>
+      <c r="D150" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150" t="s">
+        <v>297</v>
+      </c>
+      <c r="F150" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>999999</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>999999</v>
+      </c>
+      <c r="L150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>299</v>
+      </c>
+      <c r="D151" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
+        <v>17</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>59</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>59</v>
+      </c>
+      <c r="L151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" t="s">
+        <v>17</v>
+      </c>
+      <c r="K152" t="s">
+        <v>17</v>
+      </c>
+      <c r="L152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>17</v>
+      </c>
+      <c r="H153" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" t="s">
+        <v>17</v>
+      </c>
+      <c r="L153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" t="s">
+        <v>17</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" t="s">
+        <v>17</v>
+      </c>
+      <c r="K154" t="s">
+        <v>17</v>
+      </c>
+      <c r="L154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>301</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>302</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" t="s">
+        <v>303</v>
+      </c>
+      <c r="F155" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>999999</v>
+      </c>
+      <c r="I155" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>999999</v>
+      </c>
+      <c r="L155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>304</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>305</v>
+      </c>
+      <c r="D156" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>999999</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>999999</v>
+      </c>
+      <c r="L156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>308</v>
+      </c>
+      <c r="D157" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" t="s">
+        <v>309</v>
+      </c>
+      <c r="F157" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>59</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>59</v>
+      </c>
+      <c r="L157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>311</v>
+      </c>
+      <c r="D158" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>999999</v>
+      </c>
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>999999</v>
+      </c>
+      <c r="L158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>314</v>
+      </c>
+      <c r="D159" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" t="s">
+        <v>315</v>
+      </c>
+      <c r="F159" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>59</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>59</v>
+      </c>
+      <c r="L159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" t="s">
+        <v>17</v>
+      </c>
+      <c r="L160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" t="s">
+        <v>17</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" t="s">
+        <v>17</v>
+      </c>
+      <c r="L161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" t="s">
+        <v>17</v>
+      </c>
+      <c r="K162" t="s">
+        <v>17</v>
+      </c>
+      <c r="L162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>316</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>317</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>999999</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>999999</v>
+      </c>
+      <c r="L163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>319</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>320</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" t="s">
+        <v>321</v>
+      </c>
+      <c r="F164" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>999999</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>999999</v>
+      </c>
+      <c r="L164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>322</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>323</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>59</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>59</v>
+      </c>
+      <c r="L165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>326</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" t="s">
+        <v>327</v>
+      </c>
+      <c r="F166" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>999999</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>999999</v>
+      </c>
+      <c r="L166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>329</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>59</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>59</v>
+      </c>
+      <c r="L167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" t="s">
+        <v>17</v>
+      </c>
+      <c r="F168" t="s">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" t="s">
+        <v>17</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168" t="s">
+        <v>17</v>
+      </c>
+      <c r="L168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" t="s">
+        <v>17</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" t="s">
+        <v>17</v>
+      </c>
+      <c r="K169" t="s">
+        <v>17</v>
+      </c>
+      <c r="L169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" t="s">
+        <v>17</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" t="s">
+        <v>17</v>
+      </c>
+      <c r="K170" t="s">
+        <v>17</v>
+      </c>
+      <c r="L170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>331</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>332</v>
+      </c>
+      <c r="D171" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" t="s">
+        <v>333</v>
+      </c>
+      <c r="F171" t="s">
+        <v>17</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>999999</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>999999</v>
+      </c>
+      <c r="L171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>334</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>335</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>999999</v>
+      </c>
+      <c r="I172" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>999999</v>
+      </c>
+      <c r="L172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>337</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>338</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" t="s">
+        <v>339</v>
+      </c>
+      <c r="F173" t="s">
+        <v>17</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>59</v>
+      </c>
+      <c r="I173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>59</v>
+      </c>
+      <c r="L173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>341</v>
+      </c>
+      <c r="D174" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174" t="s">
+        <v>342</v>
+      </c>
+      <c r="F174" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>999999</v>
+      </c>
+      <c r="I174" t="s">
+        <v>17</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>999999</v>
+      </c>
+      <c r="L174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>344</v>
+      </c>
+      <c r="D175" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" t="s">
+        <v>345</v>
+      </c>
+      <c r="F175" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>59</v>
+      </c>
+      <c r="I175" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>59</v>
+      </c>
+      <c r="L175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" t="s">
+        <v>17</v>
+      </c>
+      <c r="I176" t="s">
+        <v>17</v>
+      </c>
+      <c r="J176" t="s">
+        <v>17</v>
+      </c>
+      <c r="K176" t="s">
+        <v>17</v>
+      </c>
+      <c r="L176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" t="s">
+        <v>17</v>
+      </c>
+      <c r="I177" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177" t="s">
+        <v>17</v>
+      </c>
+      <c r="K177" t="s">
+        <v>17</v>
+      </c>
+      <c r="L177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>17</v>
+      </c>
+      <c r="B178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" t="s">
+        <v>17</v>
+      </c>
+      <c r="G178" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" t="s">
+        <v>17</v>
+      </c>
+      <c r="I178" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178" t="s">
+        <v>17</v>
+      </c>
+      <c r="K178" t="s">
+        <v>17</v>
+      </c>
+      <c r="L178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>346</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>347</v>
+      </c>
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
+        <v>17</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>999999</v>
+      </c>
+      <c r="I179" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>999999</v>
+      </c>
+      <c r="L179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>349</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>350</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180" t="s">
+        <v>351</v>
+      </c>
+      <c r="F180" t="s">
+        <v>17</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>999999</v>
+      </c>
+      <c r="I180" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>999999</v>
+      </c>
+      <c r="L180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>352</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>353</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" t="s">
+        <v>354</v>
+      </c>
+      <c r="F181" t="s">
+        <v>17</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>59</v>
+      </c>
+      <c r="I181" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>59</v>
+      </c>
+      <c r="L181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>355</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>356</v>
+      </c>
+      <c r="D182" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182" t="s">
+        <v>357</v>
+      </c>
+      <c r="F182" t="s">
+        <v>17</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>999999</v>
+      </c>
+      <c r="I182" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>999999</v>
+      </c>
+      <c r="L182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>359</v>
+      </c>
+      <c r="D183" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183" t="s">
+        <v>360</v>
+      </c>
+      <c r="F183" t="s">
+        <v>17</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>59</v>
+      </c>
+      <c r="I183" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>59</v>
+      </c>
+      <c r="L183" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" t="s">
+        <v>17</v>
+      </c>
+      <c r="G184" t="s">
+        <v>17</v>
+      </c>
+      <c r="H184" t="s">
+        <v>17</v>
+      </c>
+      <c r="I184" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184" t="s">
+        <v>17</v>
+      </c>
+      <c r="K184" t="s">
+        <v>17</v>
+      </c>
+      <c r="L184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" t="s">
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
+        <v>17</v>
+      </c>
+      <c r="H185" t="s">
+        <v>17</v>
+      </c>
+      <c r="I185" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185" t="s">
+        <v>17</v>
+      </c>
+      <c r="K185" t="s">
+        <v>17</v>
+      </c>
+      <c r="L185" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" t="s">
+        <v>17</v>
+      </c>
+      <c r="F186" t="s">
+        <v>17</v>
+      </c>
+      <c r="G186" t="s">
+        <v>17</v>
+      </c>
+      <c r="H186" t="s">
+        <v>17</v>
+      </c>
+      <c r="I186" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" t="s">
+        <v>17</v>
+      </c>
+      <c r="K186" t="s">
+        <v>17</v>
+      </c>
+      <c r="L186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>361</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>362</v>
+      </c>
+      <c r="D187" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" t="s">
+        <v>363</v>
+      </c>
+      <c r="F187" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>999999</v>
+      </c>
+      <c r="I187" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>999999</v>
+      </c>
+      <c r="L187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>364</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>365</v>
+      </c>
+      <c r="D188" t="s">
+        <v>20</v>
+      </c>
+      <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
+        <v>17</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>999999</v>
+      </c>
+      <c r="I188" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>999999</v>
+      </c>
+      <c r="L188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>367</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>368</v>
+      </c>
+      <c r="D189" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189" t="s">
+        <v>369</v>
+      </c>
+      <c r="F189" t="s">
+        <v>17</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>59</v>
+      </c>
+      <c r="I189" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>59</v>
+      </c>
+      <c r="L189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>370</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>371</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190" t="s">
+        <v>372</v>
+      </c>
+      <c r="F190" t="s">
+        <v>17</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>999999</v>
+      </c>
+      <c r="I190" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>999999</v>
+      </c>
+      <c r="L190" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>373</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>374</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191" t="s">
+        <v>375</v>
+      </c>
+      <c r="F191" t="s">
+        <v>17</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>59</v>
+      </c>
+      <c r="I191" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>59</v>
+      </c>
+      <c r="L191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" t="s">
+        <v>17</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" t="s">
+        <v>17</v>
+      </c>
+      <c r="F192" t="s">
+        <v>17</v>
+      </c>
+      <c r="G192" t="s">
+        <v>17</v>
+      </c>
+      <c r="H192" t="s">
+        <v>17</v>
+      </c>
+      <c r="I192" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192" t="s">
+        <v>17</v>
+      </c>
+      <c r="K192" t="s">
+        <v>17</v>
+      </c>
+      <c r="L192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" t="s">
+        <v>17</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" t="s">
+        <v>17</v>
+      </c>
+      <c r="H193" t="s">
+        <v>17</v>
+      </c>
+      <c r="I193" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" t="s">
+        <v>17</v>
+      </c>
+      <c r="K193" t="s">
+        <v>17</v>
+      </c>
+      <c r="L193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" t="s">
+        <v>17</v>
+      </c>
+      <c r="F194" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" t="s">
+        <v>17</v>
+      </c>
+      <c r="I194" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194" t="s">
+        <v>17</v>
+      </c>
+      <c r="K194" t="s">
+        <v>17</v>
+      </c>
+      <c r="L194" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>376</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>377</v>
+      </c>
+      <c r="D195" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" t="s">
+        <v>378</v>
+      </c>
+      <c r="F195" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>999999</v>
+      </c>
+      <c r="I195" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>999999</v>
+      </c>
+      <c r="L195" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>379</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>380</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196" t="s">
+        <v>381</v>
+      </c>
+      <c r="F196" t="s">
+        <v>17</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>999999</v>
+      </c>
+      <c r="I196" t="s">
+        <v>17</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>999999</v>
+      </c>
+      <c r="L196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>382</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>383</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" t="s">
+        <v>17</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>59</v>
+      </c>
+      <c r="I197" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>59</v>
+      </c>
+      <c r="L197" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>385</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>386</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198" t="s">
+        <v>387</v>
+      </c>
+      <c r="F198" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>999999</v>
+      </c>
+      <c r="I198" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>999999</v>
+      </c>
+      <c r="L198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>388</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>389</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" t="s">
+        <v>390</v>
+      </c>
+      <c r="F199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>59</v>
+      </c>
+      <c r="I199" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>59</v>
+      </c>
+      <c r="L199" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" t="s">
+        <v>17</v>
+      </c>
+      <c r="H200" t="s">
+        <v>17</v>
+      </c>
+      <c r="I200" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200" t="s">
+        <v>17</v>
+      </c>
+      <c r="K200" t="s">
+        <v>17</v>
+      </c>
+      <c r="L200" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" t="s">
+        <v>17</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" t="s">
+        <v>17</v>
+      </c>
+      <c r="H201" t="s">
+        <v>17</v>
+      </c>
+      <c r="I201" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201" t="s">
+        <v>17</v>
+      </c>
+      <c r="K201" t="s">
+        <v>17</v>
+      </c>
+      <c r="L201" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" t="s">
+        <v>17</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" t="s">
+        <v>17</v>
+      </c>
+      <c r="H202" t="s">
+        <v>17</v>
+      </c>
+      <c r="I202" t="s">
+        <v>17</v>
+      </c>
+      <c r="J202" t="s">
+        <v>17</v>
+      </c>
+      <c r="K202" t="s">
+        <v>17</v>
+      </c>
+      <c r="L202" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>391</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>392</v>
+      </c>
+      <c r="D203" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" t="s">
+        <v>393</v>
+      </c>
+      <c r="F203" t="s">
+        <v>17</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>999999</v>
+      </c>
+      <c r="I203" t="s">
+        <v>17</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>999999</v>
+      </c>
+      <c r="L203" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>394</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>395</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204" t="s">
+        <v>396</v>
+      </c>
+      <c r="F204" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>999999</v>
+      </c>
+      <c r="I204" t="s">
+        <v>17</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>999999</v>
+      </c>
+      <c r="L204" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>397</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>398</v>
+      </c>
+      <c r="D205" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205" t="s">
+        <v>399</v>
+      </c>
+      <c r="F205" t="s">
+        <v>17</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>59</v>
+      </c>
+      <c r="I205" t="s">
+        <v>17</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>59</v>
+      </c>
+      <c r="L205" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>400</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>401</v>
+      </c>
+      <c r="D206" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" t="s">
+        <v>17</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>999999</v>
+      </c>
+      <c r="I206" t="s">
+        <v>17</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>999999</v>
+      </c>
+      <c r="L206" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>403</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>404</v>
+      </c>
+      <c r="D207" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207" t="s">
+        <v>405</v>
+      </c>
+      <c r="F207" t="s">
+        <v>17</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>59</v>
+      </c>
+      <c r="I207" t="s">
+        <v>17</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>59</v>
+      </c>
+      <c r="L207" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" t="s">
+        <v>17</v>
+      </c>
+      <c r="C208" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208" t="s">
+        <v>17</v>
+      </c>
+      <c r="G208" t="s">
+        <v>17</v>
+      </c>
+      <c r="H208" t="s">
+        <v>17</v>
+      </c>
+      <c r="I208" t="s">
+        <v>17</v>
+      </c>
+      <c r="J208" t="s">
+        <v>17</v>
+      </c>
+      <c r="K208" t="s">
+        <v>17</v>
+      </c>
+      <c r="L208" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209" t="s">
+        <v>17</v>
+      </c>
+      <c r="G209" t="s">
+        <v>17</v>
+      </c>
+      <c r="H209" t="s">
+        <v>17</v>
+      </c>
+      <c r="I209" t="s">
+        <v>17</v>
+      </c>
+      <c r="J209" t="s">
+        <v>17</v>
+      </c>
+      <c r="K209" t="s">
+        <v>17</v>
+      </c>
+      <c r="L209" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210" t="s">
+        <v>17</v>
+      </c>
+      <c r="G210" t="s">
+        <v>17</v>
+      </c>
+      <c r="H210" t="s">
+        <v>17</v>
+      </c>
+      <c r="I210" t="s">
+        <v>17</v>
+      </c>
+      <c r="J210" t="s">
+        <v>17</v>
+      </c>
+      <c r="K210" t="s">
+        <v>17</v>
+      </c>
+      <c r="L210" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>406</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>407</v>
+      </c>
+      <c r="D211" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" t="s">
+        <v>408</v>
+      </c>
+      <c r="F211" t="s">
+        <v>17</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>999999</v>
+      </c>
+      <c r="I211" t="s">
+        <v>17</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>999999</v>
+      </c>
+      <c r="L211" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>409</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>410</v>
+      </c>
+      <c r="D212" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212" t="s">
+        <v>411</v>
+      </c>
+      <c r="F212" t="s">
+        <v>17</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>999999</v>
+      </c>
+      <c r="I212" t="s">
+        <v>17</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>999999</v>
+      </c>
+      <c r="L212" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>412</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>413</v>
+      </c>
+      <c r="D213" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>414</v>
+      </c>
+      <c r="F213" t="s">
+        <v>17</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>59</v>
+      </c>
+      <c r="I213" t="s">
+        <v>17</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>59</v>
+      </c>
+      <c r="L213" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>415</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" t="s">
+        <v>416</v>
+      </c>
+      <c r="D214" t="s">
+        <v>20</v>
+      </c>
+      <c r="E214" t="s">
+        <v>417</v>
+      </c>
+      <c r="F214" t="s">
+        <v>17</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>999999</v>
+      </c>
+      <c r="I214" t="s">
+        <v>17</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>999999</v>
+      </c>
+      <c r="L214" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>418</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>419</v>
+      </c>
+      <c r="D215" t="s">
+        <v>20</v>
+      </c>
+      <c r="E215" t="s">
+        <v>420</v>
+      </c>
+      <c r="F215" t="s">
+        <v>17</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>59</v>
+      </c>
+      <c r="I215" t="s">
+        <v>17</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>59</v>
+      </c>
+      <c r="L215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>17</v>
+      </c>
+      <c r="B216" t="s">
+        <v>17</v>
+      </c>
+      <c r="C216" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216" t="s">
+        <v>17</v>
+      </c>
+      <c r="F216" t="s">
+        <v>17</v>
+      </c>
+      <c r="G216" t="s">
+        <v>17</v>
+      </c>
+      <c r="H216" t="s">
+        <v>17</v>
+      </c>
+      <c r="I216" t="s">
+        <v>17</v>
+      </c>
+      <c r="J216" t="s">
+        <v>17</v>
+      </c>
+      <c r="K216" t="s">
+        <v>17</v>
+      </c>
+      <c r="L216" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" t="s">
+        <v>17</v>
+      </c>
+      <c r="C217" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" t="s">
+        <v>17</v>
+      </c>
+      <c r="F217" t="s">
+        <v>17</v>
+      </c>
+      <c r="G217" t="s">
+        <v>17</v>
+      </c>
+      <c r="H217" t="s">
+        <v>17</v>
+      </c>
+      <c r="I217" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217" t="s">
+        <v>17</v>
+      </c>
+      <c r="K217" t="s">
+        <v>17</v>
+      </c>
+      <c r="L217" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>17</v>
+      </c>
+      <c r="B218" t="s">
+        <v>17</v>
+      </c>
+      <c r="C218" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" t="s">
+        <v>17</v>
+      </c>
+      <c r="F218" t="s">
+        <v>17</v>
+      </c>
+      <c r="G218" t="s">
+        <v>17</v>
+      </c>
+      <c r="H218" t="s">
+        <v>17</v>
+      </c>
+      <c r="I218" t="s">
+        <v>17</v>
+      </c>
+      <c r="J218" t="s">
+        <v>17</v>
+      </c>
+      <c r="K218" t="s">
+        <v>17</v>
+      </c>
+      <c r="L218" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>421</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" t="s">
+        <v>422</v>
+      </c>
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+      <c r="E219" t="s">
+        <v>423</v>
+      </c>
+      <c r="F219" t="s">
+        <v>17</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>999999</v>
+      </c>
+      <c r="I219" t="s">
+        <v>17</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>999999</v>
+      </c>
+      <c r="L219" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>424</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220" t="s">
+        <v>425</v>
+      </c>
+      <c r="D220" t="s">
+        <v>20</v>
+      </c>
+      <c r="E220" t="s">
+        <v>426</v>
+      </c>
+      <c r="F220" t="s">
+        <v>17</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>999999</v>
+      </c>
+      <c r="I220" t="s">
+        <v>17</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>999999</v>
+      </c>
+      <c r="L220" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>427</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" t="s">
+        <v>428</v>
+      </c>
+      <c r="D221" t="s">
+        <v>20</v>
+      </c>
+      <c r="E221" t="s">
+        <v>429</v>
+      </c>
+      <c r="F221" t="s">
+        <v>17</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>59</v>
+      </c>
+      <c r="I221" t="s">
+        <v>17</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>59</v>
+      </c>
+      <c r="L221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>430</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" t="s">
+        <v>431</v>
+      </c>
+      <c r="D222" t="s">
+        <v>20</v>
+      </c>
+      <c r="E222" t="s">
+        <v>432</v>
+      </c>
+      <c r="F222" t="s">
+        <v>17</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>999999</v>
+      </c>
+      <c r="I222" t="s">
+        <v>17</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>999999</v>
+      </c>
+      <c r="L222" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>433</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" t="s">
+        <v>434</v>
+      </c>
+      <c r="D223" t="s">
+        <v>20</v>
+      </c>
+      <c r="E223" t="s">
+        <v>435</v>
+      </c>
+      <c r="F223" t="s">
+        <v>17</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>59</v>
+      </c>
+      <c r="I223" t="s">
+        <v>17</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>59</v>
+      </c>
+      <c r="L223" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
